--- a/meta/api/BlancoApiPostSample.xlsx
+++ b/meta/api/BlancoApiPostSample.xlsx
@@ -1,42 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRest/meta/api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EEEFFC-53DF-D448-A1AD-D763FF17DD98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="460" windowWidth="21420" windowHeight="14880" tabRatio="860" activeTab="1"/>
+    <workbookView xWindow="6520" yWindow="1800" windowWidth="21420" windowHeight="17820" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
     <sheet name="post_input" sheetId="29" r:id="rId2"/>
     <sheet name="post_output" sheetId="30" r:id="rId3"/>
-    <sheet name="readme" sheetId="17" r:id="rId4"/>
-    <sheet name="config" sheetId="3" r:id="rId5"/>
+    <sheet name="put_input" sheetId="31" r:id="rId4"/>
+    <sheet name="put_output" sheetId="32" r:id="rId5"/>
+    <sheet name="readme" sheetId="17" r:id="rId6"/>
+    <sheet name="config" sheetId="3" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Submit有無">config!$C$5:$C$6</definedName>
+    <definedName name="isImport">config!$E$5:$E$6</definedName>
+    <definedName name="isNullable">config!$F$5:$F$6</definedName>
+    <definedName name="Submit有無">config!$B$5:$B$6</definedName>
     <definedName name="Validate実装パターン">config!$A$5:$A$6</definedName>
-    <definedName name="チェック種別">config!$E$5:$E$49</definedName>
-    <definedName name="型">config!$B$5:$B$34</definedName>
+    <definedName name="チェック種別">config!$D$5:$D$49</definedName>
+    <definedName name="型">config!#REF!</definedName>
     <definedName name="形式タイプ">[1]telegramConfig!$D$6:$D$27</definedName>
     <definedName name="項目型" localSheetId="1">config!#REF!</definedName>
     <definedName name="項目型" localSheetId="2">config!#REF!</definedName>
+    <definedName name="項目型" localSheetId="3">config!#REF!</definedName>
+    <definedName name="項目型" localSheetId="4">config!#REF!</definedName>
     <definedName name="項目型">config!#REF!</definedName>
-    <definedName name="必須">config!$D$5:$D$6</definedName>
-    <definedName name="必須フラグ">config!$C$5:$C$7</definedName>
+    <definedName name="必須">config!$C$5:$C$6</definedName>
+    <definedName name="必須フラグ">config!$B$5:$B$7</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -46,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="205">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -206,58 +221,6 @@
     </rPh>
     <rPh sb="1" eb="3">
       <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>階層定義</t>
-    <rPh sb="0" eb="2">
-      <t>カイソウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>文字列 (xsd:string)</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>整数 (xsd:int)</t>
-    <rPh sb="0" eb="2">
-      <t>セイスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>整数 (xsd:long)</t>
-    <rPh sb="0" eb="2">
-      <t>セイスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>数値 (xsd:decimal)</t>
-    <rPh sb="0" eb="2">
-      <t>スウチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日時 (xsd:dateTime)</t>
-    <rPh sb="0" eb="2">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>真偽値 (xsd:boolean)</t>
-    <rPh sb="0" eb="3">
-      <t>シンギチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1618,10 +1581,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>バイナリ (xsd:base64Binary)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t>・電文定義書の型のドロップダウンに バイナリ</t>
     </r>
@@ -1676,7 +1635,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>オブジェクト (xsd:object)</t>
+    <t>field_5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>field_6</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1719,6 +1682,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>object_sample</t>
+  </si>
+  <si>
+    <t>object_sample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>デフォルト</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1787,6 +1771,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>result_field_6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>result_field_5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>デフォルト</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1799,9 +1791,6 @@
   <si>
     <t>YES</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>電文の親クラス</t>
   </si>
   <si>
     <t>認証が不要なAPI</t>
@@ -1910,34 +1899,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>第1パラメータ</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>第2パラメータ</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>第3パラメータ</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>第4パラメータ</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>許可（所有者）</t>
     <rPh sb="0" eb="2">
       <t>キョカ</t>
@@ -1972,67 +1933,17 @@
     <t>POST</t>
   </si>
   <si>
-    <t>要求電文ID（GETメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>ヨウキュウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>応答電文ID（GETメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>オウトウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>要求電文ID（POSTメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>ヨウキュウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>応答電文ID（POSTメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>オウトウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>要求電文ID（PUTメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>ヨウキュウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>応答電文ID（PUTメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>オウトウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>要求電文ID（DELETEメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>ヨウキュウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>応答電文ID（DELETEメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>オウトウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ApiPostTelegram</t>
-    <phoneticPr fontId="2"/>
+    <t>PUT</t>
   </si>
   <si>
     <t>総称型</t>
+  </si>
+  <si>
+    <t>BlancoApiSample</t>
+  </si>
+  <si>
+    <t>blanco.sample</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>blanco.sample</t>
@@ -2068,56 +1979,99 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>BlancoApiPostSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoApiPostSamplePostRequest</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoApiPostSampleGetRequest</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoApiPostSampleGetResponse</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoApiPostSamplePostResponse</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoApiPostSamplePutRequest</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoApiPostSamplePutResponse</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoApiPostSampleDeleteRequest</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoApiPostSampleDeleteResponse</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>電文処理定義・継承</t>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>array&lt;ObjectSample&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>array&lt;ObjectSample&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>配置ディレクトリ</t>
     <rPh sb="0" eb="2">
-      <t>デンブn</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
+      <t xml:space="preserve">ハイチ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/blanco/main/typescript</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本番時にファイルを配置する歳のベースディレクトリ。主にTypeScriptのimport文生成時に使用する事を想定しています。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アノテーション</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JsonAutoDetect</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>import文の自動生成</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t xml:space="preserve">ジドウセイセイ </t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>/* TypeScript 独自。blancoで一括生成されたクラスについて、import文を自動生成します。 */</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ドクジ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">イッカツ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t xml:space="preserve">ジドウセイセイ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>クラス名</t>
-  </si>
-  <si>
-    <t>パッケージ</t>
   </si>
   <si>
     <t>名前空間</t>
@@ -2127,38 +2081,125 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ApiBase</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>電文定義・継承</t>
+    <t>インタフェース名</t>
+    <rPh sb="0" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インポートクラス名</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.annotation.*</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘッダ記述文</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">キジュツ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>import</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文処理定義・継承</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">デンブンショリ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文処理定義・実装</t>
+    <rPh sb="0" eb="6">
+      <t xml:space="preserve">デンブンショリテイギ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文処理定義・インポート</t>
+    <rPh sb="0" eb="6">
+      <t xml:space="preserve">デンブンショリテイギ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文処理定義・ヘッダ情報</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">デンブンショリ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文定義・実装</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">デンブンショリテイギ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文定義・インポート</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">デンブンショリテイギ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文定義・ヘッダ情報</t>
     <rPh sb="0" eb="2">
-      <t>デンブn</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>blanco.rest.common</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>blanco\rest\common</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>blanco.rest.valueobject</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>blanco\rest\valueobject</t>
+      <t xml:space="preserve">デンブンショリ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nullable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nullable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BlancoApiPostSample</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2221,8 +2262,21 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2261,6 +2315,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
@@ -2273,18 +2339,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="27"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="9"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -2649,6 +2709,67 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -2694,9 +2815,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color indexed="8"/>
-      </left>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="8"/>
@@ -2709,68 +2850,8 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -2791,15 +2872,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2807,21 +2914,150 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -2835,7 +3071,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2869,7 +3105,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2888,7 +3123,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2917,14 +3151,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2989,6 +3218,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3019,15 +3249,81 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3038,11 +3334,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3051,54 +3464,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3180,6 +3575,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3636,460 +4034,856 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="58.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="1"/>
-    <col min="14" max="14" width="9.1640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="15" max="15" width="9.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19">
       <c r="A1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="173" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="96"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="171"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="177" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="177"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="96"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="173" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="177" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="177"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="96"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="173" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="177" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="177"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="173" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="177" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="177"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="173" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="173"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="173" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="173"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="177" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="177"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="138" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="29"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="58" t="s">
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="178" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="178"/>
+      <c r="F12" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="29"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="58" t="s">
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="138" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="29"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="104" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" s="29"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="104" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="106" t="s">
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="178" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="29"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="104" t="s">
-        <v>169</v>
-      </c>
-      <c r="B12" s="58" t="s">
+      <c r="E13" s="178"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="96"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="174" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="175"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="115"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="139" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="29"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="104" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="58" t="s">
+      <c r="B15" s="140"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="29"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="104" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="58" t="s">
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="167" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="168"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="169"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="29"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="104" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="58" t="s">
+      <c r="B18" s="111"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="114"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="107"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="29"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="29"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="29"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-    </row>
-    <row r="22" spans="1:10" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="121" t="s">
+      <c r="B20" s="114"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="110"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="166" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="166"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="145" t="s">
         <v>190</v>
       </c>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="124" t="s">
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="117"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="118"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="119"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="113"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="148" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="150"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="159" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="125"/>
-      <c r="C23" s="126" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="127" t="s">
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="117">
+        <v>1</v>
+      </c>
+      <c r="B30" s="160" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="128"/>
-      <c r="C24" s="129" t="s">
-        <v>196</v>
-      </c>
-      <c r="D24" s="130"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="132"/>
-    </row>
-    <row r="25" spans="1:10" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="127" t="s">
+      <c r="C30" s="160"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="118"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="119"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="150"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="159" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="128"/>
-      <c r="C25" s="135" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" s="136"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="132"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="52"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="52"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="52"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="52"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="52"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="52"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="52"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="52"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="52"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="52"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="52"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="52"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="52"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="52"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="52"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="52"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="52"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="52"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="52"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="52"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="52"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="52"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="52"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="52"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="52"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="52"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="52"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="52"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="52"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="52"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="52"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="52"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="52"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="52"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="52"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="52"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="52"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="52"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="52"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="52"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="52"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="52"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="52"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="52"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="52"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="52"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="52"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="53"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="53"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="N35" s="112"/>
+      <c r="O35" s="112"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="117"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="118"/>
+      <c r="B37" s="154"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="119"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="142"/>
+      <c r="C41" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="136"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="143"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="49"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="133"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="49"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="133"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="134"/>
+      <c r="F44" s="49"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="133"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="157"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="49"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="133"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="157"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="49"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="133"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="157"/>
+      <c r="E47" s="134"/>
+      <c r="F47" s="49"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="133"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="157"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="49"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="133"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="157"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="49"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="133"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="157"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="49"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="133"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="157"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="49"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="133"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="157"/>
+      <c r="E52" s="134"/>
+      <c r="F52" s="49"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="133"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="133"/>
+      <c r="D53" s="157"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="49"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="133"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="157"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="49"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="133"/>
+      <c r="B55" s="134"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="157"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="49"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="133"/>
+      <c r="B56" s="134"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="157"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="49"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="133"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="133"/>
+      <c r="D57" s="157"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="49"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="133"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="157"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="49"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="133"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="157"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="49"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="133"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="134"/>
+      <c r="F60" s="49"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="133"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="133"/>
+      <c r="D61" s="157"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="49"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="133"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="157"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="49"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="133"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="133"/>
+      <c r="D63" s="157"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="49"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="133"/>
+      <c r="B64" s="134"/>
+      <c r="C64" s="133"/>
+      <c r="D64" s="157"/>
+      <c r="E64" s="134"/>
+      <c r="F64" s="49"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="133"/>
+      <c r="B65" s="134"/>
+      <c r="C65" s="133"/>
+      <c r="D65" s="157"/>
+      <c r="E65" s="134"/>
+      <c r="F65" s="49"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="151"/>
+      <c r="B66" s="152"/>
+      <c r="C66" s="151"/>
+      <c r="D66" s="158"/>
+      <c r="E66" s="152"/>
+      <c r="F66" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B28:D28"/>
+  <mergeCells count="87">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15" xr:uid="{AA005DBF-E840-AD43-AC91-CD6CE016CB50}">
+      <formula1>isImport</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
   <headerFooter>
@@ -4098,11 +4892,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>config!$C$5:$C$6</xm:f>
+            <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B16</xm:sqref>
+          <xm:sqref>D14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4111,803 +4905,1176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41:I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="43.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.1640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="20.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="43.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="6.1640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.83203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.83203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" style="1"/>
-    <col min="25" max="25" width="9.1640625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.83203125" style="1"/>
+    <col min="21" max="21" width="16.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.83203125" style="1"/>
+    <col min="27" max="27" width="9.1640625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="19">
       <c r="A1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C6" s="130" t="str">
+        <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
+        <v>BlancoApiPostSamplePostRequest</v>
+      </c>
+      <c r="D6" s="131"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C7" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="128"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D8" s="126"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="139" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="63" t="s">
+      <c r="C9" s="122" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="56" t="s">
         <v>156</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="61"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="63" t="s">
+      <c r="C10" s="122"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="56" t="s">
         <v>157</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="61"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="63" t="s">
+      <c r="C11" s="122"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="56" t="s">
         <v>158</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="61"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="63" t="s">
-        <v>159</v>
+      <c r="C12" s="122"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="61"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="63" t="s">
-        <v>160</v>
+      <c r="C13" s="52"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="61"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="61"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="63" t="s">
+      <c r="C14" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="123"/>
+      <c r="C15" s="178" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="178"/>
+      <c r="E15" s="96" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="54"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="123"/>
+      <c r="C16" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="178"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="124" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="125"/>
+      <c r="C17" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="6"/>
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="166" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="145" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="112"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="117"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="118"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="119"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="148" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="150"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="159" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="117">
+        <v>1</v>
+      </c>
+      <c r="B27" s="160" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="118"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="119"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="148" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="150"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="159" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="106"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="117"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="118"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="113"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="119"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="179" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="181" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="179" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="184" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="61"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A17" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="61"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="C20" s="29"/>
-    </row>
-    <row r="21" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="121" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="124" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="125"/>
-      <c r="C22" s="126" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="127" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="128"/>
-      <c r="C23" s="129" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="132"/>
-    </row>
-    <row r="24" spans="1:18" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="127" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="128"/>
-      <c r="C24" s="140" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" s="141"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="132"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A26" s="20" t="s">
+      <c r="F39" s="184" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" s="179" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="179" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" s="179" t="s">
+        <v>202</v>
+      </c>
+      <c r="J39" s="182" t="s">
+        <v>71</v>
+      </c>
+      <c r="K39" s="183"/>
+      <c r="L39" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="183"/>
+      <c r="N39" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="O39" s="179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="180"/>
+      <c r="B40" s="180"/>
+      <c r="C40" s="180"/>
+      <c r="D40" s="180"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="191"/>
+      <c r="G40" s="180"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="186"/>
+      <c r="J40" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L40" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="O40" s="180"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="7">
+        <v>1</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="J41" s="24">
+        <v>0</v>
+      </c>
+      <c r="K41" s="30">
         <v>10</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A27" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="112" t="s">
+      <c r="L41" s="24"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="10">
+        <f t="shared" ref="A42:A47" si="0">A41+1</f>
+        <v>2</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J42" s="21"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="21">
         <v>0</v>
       </c>
-      <c r="C27" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="115" t="s">
-        <v>174</v>
-      </c>
-      <c r="F27" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="H27" s="110" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="111"/>
-      <c r="J27" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="111"/>
-      <c r="L27" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="M27" s="112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A28" s="113"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="113"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
-        <v>1</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="M42" s="31">
         <v>100</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25">
-        <v>0</v>
-      </c>
-      <c r="I29" s="32">
-        <v>10</v>
-      </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A30" s="10">
-        <f t="shared" ref="A30:A32" si="0">A29+1</f>
-        <v>2</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="22">
-        <v>0</v>
-      </c>
-      <c r="K30" s="33">
-        <v>100</v>
-      </c>
-      <c r="L30" s="33"/>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
+      <c r="N42" s="31"/>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="27" t="b">
+      <c r="B43" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="14"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A32" s="10">
+      <c r="I43" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J43" s="21"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="14"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="89"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="14"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="14"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="14"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="14"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="14"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="14"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="14"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="14"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="14"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="10"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="14"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="14"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="10"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="14"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" s="10"/>
-      <c r="B44" s="23"/>
+      <c r="B44" s="22" t="s">
+        <v>96</v>
+      </c>
       <c r="C44" s="13"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="14"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
-      <c r="B45" s="23"/>
+      <c r="D44" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J44" s="21"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="14"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>97</v>
+      </c>
       <c r="C45" s="13"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="14"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A46" s="10"/>
-      <c r="B46" s="23"/>
+      <c r="D45" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="26"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J45" s="25"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="14"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47" s="10"/>
-      <c r="B47" s="23"/>
+      <c r="D46" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J46" s="21"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="14"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>115</v>
+      </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="14"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D47" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J47" s="21"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="14"/>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="10"/>
-      <c r="B48" s="23"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="27"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="87"/>
       <c r="H48" s="26"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="14"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I48" s="25"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="14"/>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="10"/>
-      <c r="B49" s="23"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="14"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="14"/>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="10"/>
-      <c r="B50" s="23"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="14"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="14"/>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="10"/>
-      <c r="B51" s="23"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="27"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="87"/>
       <c r="H51" s="26"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="14"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A52" s="15"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="17"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="14"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="10"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="14"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="10"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="14"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="10"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="14"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="10"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="14"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="10"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="14"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="10"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="14"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="10"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="14"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="10"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="14"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="10"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="14"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="10"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="87"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="14"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="10"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="87"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="14"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="10"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="87"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="14"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="15"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="E27:E28"/>
+  <mergeCells count="29">
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="I39:I40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8">
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>Validate実装パターン</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{C2D0C7F4-19B0-DB40-AFFD-E6928EE4E5C2}">
+      <formula1>isImport</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I41:I64" xr:uid="{1FBC7B49-ABAE-AE4A-8A55-EF1A4EFC4446}">
+      <formula1>isNullable</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" display="http://tempuri.org/sample"/>
+    <hyperlink ref="C14" r:id="rId1" display="http://tempuri.org/sample" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape"/>
@@ -4918,23 +6085,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>config!$E$5:$E$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C14:C16</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>config!$D$5:$D$8</xm:f>
           </x14:formula1>
+          <xm:sqref>C10:C12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+          <x14:formula1>
+            <xm:f>config!$C$5:$C$8</xm:f>
+          </x14:formula1>
           <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
-            <xm:f>config!$C$5:$C$6</xm:f>
+            <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F29:F52</xm:sqref>
+          <xm:sqref>G41:G64</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4943,704 +6110,1110 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I38" sqref="I38:I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="43.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.1640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="43.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="6.1640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.83203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.83203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" style="1"/>
-    <col min="25" max="25" width="9.1640625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.83203125" style="1"/>
+    <col min="21" max="21" width="16.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.83203125" style="1"/>
+    <col min="27" max="27" width="9.1640625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="19">
       <c r="A1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="61"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="61"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C6" s="132" t="str">
+        <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
+        <v>BlancoApiPostSamplePostResponse</v>
+      </c>
+      <c r="D6" s="131"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C7" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="61"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C8" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="101" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="61"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C9" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="95"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="61"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="C11" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="178" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="178"/>
+      <c r="E12" s="96" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="96"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="123"/>
+      <c r="C13" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="178"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="J13" s="96"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="124" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="125"/>
+      <c r="C14" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="166" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="145" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="117"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="118"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="119"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="C21"/>
+      <c r="I21" s="113"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="148" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="149"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="150"/>
+      <c r="I22" s="113"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="159" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="117">
+        <v>1</v>
+      </c>
+      <c r="B24" s="160" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="160"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="118"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="119"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27" s="113"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="148" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="150"/>
+      <c r="I28" s="113"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="159" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="117"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="113"/>
+      <c r="I30"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="118"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="119"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33" s="113"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="6"/>
+      <c r="I34" s="113"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="58"/>
+    </row>
+    <row r="36" spans="1:15" ht="15">
+      <c r="A36" s="184" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="184" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="184" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="184" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="184" t="s">
+        <v>184</v>
+      </c>
+      <c r="G36" s="184" t="s">
+        <v>140</v>
+      </c>
+      <c r="H36" s="184" t="s">
+        <v>139</v>
+      </c>
+      <c r="I36" s="179" t="s">
+        <v>202</v>
+      </c>
+      <c r="J36" s="188" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" s="189"/>
+      <c r="L36" s="190" t="s">
+        <v>123</v>
+      </c>
+      <c r="M36" s="189"/>
+      <c r="N36" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="O36" s="184" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15">
+      <c r="A37" s="187"/>
+      <c r="B37" s="187"/>
+      <c r="C37" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="187"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="191"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="K37" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="L37" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="M37" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="N37" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="O37" s="187"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="64">
+        <v>1</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="67"/>
+      <c r="I38" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="68"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="64">
+        <v>2</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="68"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="64">
+        <v>3</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="51"/>
+      <c r="D40" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="61"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="121" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="124" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="126" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="127" t="s">
-        <v>192</v>
-      </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="129" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
-    </row>
-    <row r="17" spans="1:13" s="123" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="127" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="140" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="141"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="132"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="65"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="115" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="115" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="115" t="s">
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="71"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="64">
+        <v>4</v>
+      </c>
+      <c r="B41" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="115" t="s">
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="75"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="64">
+        <v>5</v>
+      </c>
+      <c r="B42" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="73"/>
+      <c r="D42" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="74"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="75"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="64">
+        <v>6</v>
+      </c>
+      <c r="B43" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="73"/>
+      <c r="D43" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="75"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="64">
+        <v>7</v>
+      </c>
+      <c r="B44" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="73"/>
+      <c r="D44" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="F20" s="115" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="115" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" s="120" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="118"/>
-      <c r="J20" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" s="118"/>
-      <c r="L20" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="M20" s="115" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="119"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="I21" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="J21" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="K21" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="L21" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="M21" s="119"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="71">
-        <v>1</v>
-      </c>
-      <c r="B22" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="75"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="71">
-        <v>2</v>
-      </c>
-      <c r="B23" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="74"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="75"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="71">
-        <v>3</v>
-      </c>
-      <c r="B24" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="78"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="71">
-        <v>4</v>
-      </c>
-      <c r="B25" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="81"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="82"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="71"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="82"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="71"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="82"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="71"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="82"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="71"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="82"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="71"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="82"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="71"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="82"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="71"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="82"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="71"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="82"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="71"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="82"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="71"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="82"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="71"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="82"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="71"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="82"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="71"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="82"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="71"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="82"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="71"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="82"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="71"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="82"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="71"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="82"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="71"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="82"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" s="71"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="81"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="92"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="82"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="83"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="88"/>
+      <c r="I44" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="75"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="64"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="75"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="64"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="67"/>
+      <c r="O46" s="75"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="64"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="75"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="64"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="75"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="64"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="75"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="64"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="75"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="64"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="92"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="65"/>
+      <c r="O51" s="75"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="64"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="75"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="64"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="65"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="75"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="64"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="75"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="64"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="75"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="64"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="75"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="64"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="75"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="64"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="65"/>
+      <c r="N58" s="65"/>
+      <c r="O58" s="75"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="64"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="65"/>
+      <c r="N59" s="65"/>
+      <c r="O59" s="75"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="64"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="92"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="75"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="76"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="E20:E21"/>
+  <mergeCells count="28">
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="I36:I37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8">
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>Validate実装パターン</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{D2F1DDFB-4C14-CF4E-91F9-FC070B8AB604}">
+      <formula1>isImport</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I38:I61" xr:uid="{F4F6C18F-0D3A-4244-9E9D-92EEB33B399D}">
+      <formula1>isNullable</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -5652,17 +7225,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
           <x14:formula1>
-            <xm:f>config!$D$5:$D$8</xm:f>
+            <xm:f>config!$C$5:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
           <x14:formula1>
-            <xm:f>config!$C$5:$C$6</xm:f>
+            <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F22:F45</xm:sqref>
+          <xm:sqref>G38:G61</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5671,8 +7244,2347 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41:I47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="20.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="43.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.83203125" style="1"/>
+    <col min="27" max="27" width="9.1640625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="19">
+      <c r="A1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="130" t="str">
+        <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
+        <v>BlancoApiPostSamplePutRequest</v>
+      </c>
+      <c r="D6" s="131"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="84"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="95"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="123"/>
+      <c r="C15" s="178" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="178"/>
+      <c r="E15" s="96" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="54"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="123"/>
+      <c r="C16" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="178"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="124" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="125"/>
+      <c r="C17" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="6"/>
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="166" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="145" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="112"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="117"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="118"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="119"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="148" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="150"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="159" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="117">
+        <v>1</v>
+      </c>
+      <c r="B27" s="160" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="118"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="119"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="113"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="148" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="150"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="159" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="106"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="117"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="118"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="113"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="119"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="179" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="181" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="179" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="184" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="184" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" s="179" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="179" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" s="179" t="s">
+        <v>202</v>
+      </c>
+      <c r="J39" s="182" t="s">
+        <v>71</v>
+      </c>
+      <c r="K39" s="183"/>
+      <c r="L39" s="182" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="183"/>
+      <c r="N39" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="O39" s="179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="180"/>
+      <c r="B40" s="180"/>
+      <c r="C40" s="180"/>
+      <c r="D40" s="180"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="191"/>
+      <c r="G40" s="180"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="186"/>
+      <c r="J40" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L40" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="O40" s="180"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="7">
+        <v>1</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="J41" s="24">
+        <v>0</v>
+      </c>
+      <c r="K41" s="30">
+        <v>10</v>
+      </c>
+      <c r="L41" s="24"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="10">
+        <f t="shared" ref="A42:A47" si="0">A41+1</f>
+        <v>2</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J42" s="21"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="21">
+        <v>0</v>
+      </c>
+      <c r="M42" s="31">
+        <v>100</v>
+      </c>
+      <c r="N42" s="31"/>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J43" s="21"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="14"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J44" s="21"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="14"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" s="26"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J45" s="25"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J46" s="21"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="14"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J47" s="21"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="14"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="10"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="14"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="10"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="14"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="10"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="14"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="10"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="14"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="10"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="14"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="10"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="14"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="10"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="14"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="10"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="14"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="10"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="14"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="10"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="14"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="10"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="14"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="10"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="14"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="10"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="14"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="10"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="87"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="14"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="10"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="87"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="14"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="10"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="87"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="14"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="15"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="I39:I40"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0500-000000000000}">
+      <formula1>Validate実装パターン</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{8DCE618D-7292-824C-BB89-A7819F622C03}">
+      <formula1>isImport</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I41:I64" xr:uid="{00E63083-CDBF-F045-B8D5-63F639C95F60}">
+      <formula1>isNullable</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1" display="http://tempuri.org/sample" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D&amp;  &amp;T</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+          <x14:formula1>
+            <xm:f>config!$D$5:$D$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10:C12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
+          <x14:formula1>
+            <xm:f>config!$C$5:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000003000000}">
+          <x14:formula1>
+            <xm:f>config!$B$5:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G41:G64</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38:I44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="43.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.83203125" style="1"/>
+    <col min="27" max="27" width="9.1640625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="19">
+      <c r="A1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="132" t="str">
+        <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
+        <v>BlancoApiPostSamplePutResponse</v>
+      </c>
+      <c r="D6" s="131"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="95"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="178" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="178"/>
+      <c r="E12" s="96" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="96"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="123"/>
+      <c r="C13" s="178" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="178"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="J13" s="96"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="124" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="125"/>
+      <c r="C14" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="166" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="145" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="117"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="113"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="118"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="119"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="C21"/>
+      <c r="I21" s="113"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="148" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="149"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="150"/>
+      <c r="I22" s="113"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="159" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="117">
+        <v>1</v>
+      </c>
+      <c r="B24" s="160" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="160"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="118"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="119"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27" s="113"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="148" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="150"/>
+      <c r="I28" s="113"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="159" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="117"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="113"/>
+      <c r="I30"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="118"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="119"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33" s="113"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="6"/>
+      <c r="I34" s="113"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="58"/>
+    </row>
+    <row r="36" spans="1:15" ht="15">
+      <c r="A36" s="184" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="184" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="184" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="184" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="184" t="s">
+        <v>184</v>
+      </c>
+      <c r="G36" s="184" t="s">
+        <v>140</v>
+      </c>
+      <c r="H36" s="184" t="s">
+        <v>139</v>
+      </c>
+      <c r="I36" s="179" t="s">
+        <v>202</v>
+      </c>
+      <c r="J36" s="188" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" s="189"/>
+      <c r="L36" s="190" t="s">
+        <v>123</v>
+      </c>
+      <c r="M36" s="189"/>
+      <c r="N36" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="O36" s="184" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15">
+      <c r="A37" s="187"/>
+      <c r="B37" s="187"/>
+      <c r="C37" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="187"/>
+      <c r="E37" s="185"/>
+      <c r="F37" s="191"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="K37" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="L37" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="M37" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="N37" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="O37" s="187"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="64">
+        <v>1</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="67"/>
+      <c r="I38" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="68"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="64">
+        <v>2</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="68"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="64">
+        <v>3</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="51"/>
+      <c r="D40" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="71"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="64">
+        <v>4</v>
+      </c>
+      <c r="B41" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="75"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="64">
+        <v>5</v>
+      </c>
+      <c r="B42" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="73"/>
+      <c r="D42" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="F42" s="74"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="75"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="64">
+        <v>6</v>
+      </c>
+      <c r="B43" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="73"/>
+      <c r="D43" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="75"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="64">
+        <v>7</v>
+      </c>
+      <c r="B44" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="73"/>
+      <c r="D44" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="75"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="64"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="75"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="64"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="67"/>
+      <c r="O46" s="75"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="64"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="75"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="64"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="75"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="64"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+      <c r="O49" s="75"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="64"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="75"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="64"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="92"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="65"/>
+      <c r="O51" s="75"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="64"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="75"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="64"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="65"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="75"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="64"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="75"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="64"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="75"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="64"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="75"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="64"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="75"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="64"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="65"/>
+      <c r="N58" s="65"/>
+      <c r="O58" s="75"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="64"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="65"/>
+      <c r="N59" s="65"/>
+      <c r="O59" s="75"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="64"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="92"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="75"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="76"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="I36:I37"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0600-000000000000}">
+      <formula1>Validate実装パターン</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{636F0EC0-E3B1-F545-9C36-B207BD3682CC}">
+      <formula1>isImport</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I38:I61" xr:uid="{5095142C-A801-5B49-9AD7-C55126FBCCC6}">
+      <formula1>isNullable</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D&amp;  &amp;T</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
+          <x14:formula1>
+            <xm:f>config!$C$5:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000002000000}">
+          <x14:formula1>
+            <xm:f>config!$B$5:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G38:G61</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I57"/>
@@ -5681,320 +9593,320 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="42" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="42"/>
+    <col min="1" max="1" width="3.6640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="40" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="19">
       <c r="A1" s="18" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1"/>
-      <c r="C16" s="42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C16" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="B17" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C18" s="42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="B19" s="1"/>
-      <c r="C19" s="42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C19" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="B20" s="1"/>
-      <c r="C20" s="42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C20" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
-      <c r="B23" s="42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1"/>
-      <c r="B26" s="42" t="s">
-        <v>50</v>
+      <c r="B26" s="40" t="s">
+        <v>43</v>
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29" s="40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" s="40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="C33" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="C34" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="42" t="s">
+    <row r="38" spans="2:3">
+      <c r="C38" s="40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C29" s="42" t="s">
+    <row r="40" spans="2:3">
+      <c r="C40" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" s="40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C30" s="42" t="s">
+    <row r="42" spans="2:3">
+      <c r="C42" s="40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C31" s="42" t="s">
+    <row r="43" spans="2:3">
+      <c r="C43" s="40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C33" s="42" t="s">
+    <row r="44" spans="2:3">
+      <c r="B44" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="C45" s="40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="C46" s="40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="C48" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="C49" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="C51" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="C52" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C34" s="42" t="s">
+    <row r="55" spans="1:3">
+      <c r="B55" s="40" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" s="42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C36" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B37" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C38" s="42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B39" s="42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C40" s="42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C41" s="42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C42" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C43" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B44" s="42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C45" s="42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C46" s="42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B47" s="42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C48" s="42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C49" s="42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B50" s="42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C51" s="42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C52" s="42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B55" s="42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C56" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C57" s="42" t="s">
-        <v>97</v>
+    <row r="56" spans="1:3">
+      <c r="C56" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="C57" s="40" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -6004,205 +9916,115 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="19">
       <c r="A1" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="C4" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="D4" s="43" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="46" t="s">
+      <c r="E4" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="47" t="s">
+      <c r="B5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="48" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="49" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="D6" s="66" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="50" t="s">
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="15"/>
+      <c r="C7" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="47" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="50" t="s">
+    <row r="8" spans="1:6">
+      <c r="C8" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="50" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="50"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="50"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="50"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="50"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="50"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="50"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="50"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="50"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="50"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="50"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="50"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="50"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="50"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="50"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="50"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="50"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="50"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="50"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="50"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="50"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="51"/>
+      <c r="D8" s="48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="D10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/meta/api/BlancoApiPostSample.xlsx
+++ b/meta/api/BlancoApiPostSample.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h-matsumoto\Documents\workspace\cacco_oplux\blancoRestGeneratorTs\meta\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EEEFFC-53DF-D448-A1AD-D763FF17DD98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="1800" windowWidth="21420" windowHeight="17820" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6525" yWindow="1800" windowWidth="21420" windowHeight="17820" tabRatio="860"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -40,10 +39,10 @@
     <definedName name="必須">config!$C$5:$C$6</definedName>
     <definedName name="必須フラグ">config!$B$5:$B$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1939,9 +1938,6 @@
     <t>総称型</t>
   </si>
   <si>
-    <t>BlancoApiSample</t>
-  </si>
-  <si>
     <t>blanco.sample</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2188,6 +2184,10 @@
   </si>
   <si>
     <t>nullable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BlancoApiPostSample</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2198,8 +2198,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3319,12 +3319,93 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3334,9 +3415,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3349,12 +3427,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3373,51 +3445,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3430,32 +3457,11 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3464,34 +3470,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3587,127 +3587,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="TAAA0001C"/>
-      <sheetName val="型プレフィックス定義"/>
-      <sheetName val="TAAA0001S"/>
       <sheetName val="telegramConfig"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>なし</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7" t="str">
-            <v>半角</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>全角</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9" t="str">
-            <v>半角数字</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10" t="str">
-            <v>半角英字</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11" t="str">
-            <v>半角英字大文字</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12" t="str">
-            <v>半角英字小文字</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13" t="str">
-            <v>半角英数字</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14" t="str">
-            <v>半角英数字記号</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15" t="str">
-            <v>半角カタカナ</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16" t="str">
-            <v>全角英字大文字</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17" t="str">
-            <v>全角英字小文字</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18" t="str">
-            <v>全角英字</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19" t="str">
-            <v>全角数字</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20" t="str">
-            <v>全角英数字</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21" t="str">
-            <v>全角英数字記号</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22" t="str">
-            <v>全角ひらがな</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23" t="str">
-            <v>全角カタカナ</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24" t="str">
-            <v>全角ひらがなカタカナ</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25" t="str">
-            <v>年月日 (yyyy/MM/dd)</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26" t="str">
-            <v>年月日 (yy/MM/dd)</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27" t="str">
-            <v>月日 (MM/dd)</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4034,37 +3917,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="58.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
-    <col min="15" max="15" width="9.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="18.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
+    <col min="15" max="15" width="9.125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -4073,158 +3956,158 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="173" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="96"/>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="170" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="177" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="177"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="134" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="134"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="96"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="173" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="177" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="177"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="134"/>
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
       <c r="H7" s="96"/>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="173" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="177" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="177"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="134" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="134"/>
       <c r="F8" s="96"/>
       <c r="G8" s="96"/>
       <c r="H8" s="96"/>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="173" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="173"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="177" t="s">
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="177"/>
+      <c r="E9" s="134"/>
       <c r="F9" s="96"/>
       <c r="G9" s="96"/>
       <c r="H9" s="96"/>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="173" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="173"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="173" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="173"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="177" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="177"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="134" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="134"/>
       <c r="F11" s="96"/>
       <c r="G11" s="96"/>
       <c r="H11" s="96"/>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="138" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="142" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="135" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="178" t="s">
+      <c r="E12" s="135"/>
+      <c r="F12" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="E12" s="178"/>
-      <c r="F12" s="96" t="s">
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="142" t="s">
         <v>183</v>
       </c>
-      <c r="G12" s="54"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="138" t="s">
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="135" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="178" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="178"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
       <c r="H13" s="96"/>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="174" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="175"/>
-      <c r="C14" s="176"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="141"/>
       <c r="D14" s="115"/>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="139" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="140"/>
-      <c r="C15" s="141"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="165" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="166"/>
+      <c r="C15" s="167"/>
       <c r="D15" s="101" t="s">
         <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -4234,24 +4117,24 @@
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="167" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" s="168"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="169"/>
-    </row>
-    <row r="18" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="176" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="177"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="178"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="102" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="111"/>
       <c r="C18" s="103"/>
@@ -4265,7 +4148,7 @@
       <c r="K18" s="106"/>
       <c r="L18" s="106"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="99" t="s">
         <v>99</v>
       </c>
@@ -4276,9 +4159,9 @@
       <c r="F19" s="98"/>
       <c r="G19" s="107"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" s="114"/>
       <c r="C20" s="100"/>
@@ -4287,32 +4170,32 @@
       <c r="F20" s="109"/>
       <c r="G20" s="110"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C21"/>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="166" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="166"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="166"/>
-    </row>
-    <row r="23" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="175" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="175"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="145" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="147"/>
+      <c r="B23" s="169" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="171"/>
       <c r="H23" s="106"/>
       <c r="I23" s="106"/>
       <c r="J23" s="106"/>
@@ -4321,7 +4204,7 @@
       <c r="N23" s="112"/>
       <c r="O23" s="112"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="117"/>
       <c r="B24" s="153"/>
       <c r="C24" s="153"/>
@@ -4337,14 +4220,14 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="118"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
       <c r="H25" s="113"/>
       <c r="I25" s="113"/>
       <c r="J25" s="113"/>
@@ -4353,14 +4236,14 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="119"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
       <c r="H26" s="113"/>
       <c r="I26" s="113"/>
       <c r="J26" s="113"/>
@@ -4369,32 +4252,32 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="148" t="s">
-        <v>197</v>
-      </c>
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="150"/>
-    </row>
-    <row r="29" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="172" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="173"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="174"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="159" t="s">
-        <v>191</v>
-      </c>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
+      <c r="B29" s="149" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
       <c r="H29" s="106"/>
       <c r="I29" s="106"/>
       <c r="J29" s="106"/>
@@ -4403,18 +4286,18 @@
       <c r="N29" s="112"/>
       <c r="O29" s="112"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="117">
         <v>1</v>
       </c>
-      <c r="B30" s="160" t="s">
-        <v>192</v>
-      </c>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
+      <c r="B30" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
       <c r="H30" s="113"/>
       <c r="I30" s="113"/>
       <c r="J30" s="113"/>
@@ -4423,14 +4306,14 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="118"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151"/>
       <c r="H31" s="113"/>
       <c r="I31" s="113"/>
       <c r="J31" s="113"/>
@@ -4439,14 +4322,14 @@
       <c r="N31"/>
       <c r="O31"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="119"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
       <c r="H32" s="113"/>
       <c r="I32" s="113"/>
       <c r="J32" s="113"/>
@@ -4455,7 +4338,7 @@
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -4470,29 +4353,29 @@
       <c r="L33"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="148" t="s">
-        <v>198</v>
-      </c>
-      <c r="B34" s="149"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="150"/>
-    </row>
-    <row r="35" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="172" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="173"/>
+      <c r="C34" s="173"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="174"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="159" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="159"/>
+      <c r="B35" s="149" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
       <c r="H35" s="106"/>
       <c r="I35" s="106"/>
       <c r="J35" s="106"/>
@@ -4501,14 +4384,14 @@
       <c r="N35" s="112"/>
       <c r="O35" s="112"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="117"/>
       <c r="B36" s="153"/>
       <c r="C36" s="153"/>
       <c r="D36" s="153"/>
       <c r="E36" s="153"/>
       <c r="F36" s="153"/>
-      <c r="G36" s="163"/>
+      <c r="G36" s="154"/>
       <c r="H36" s="113"/>
       <c r="I36" s="113"/>
       <c r="J36" s="113"/>
@@ -4517,14 +4400,14 @@
       <c r="N36"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="118"/>
-      <c r="B37" s="154"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="164"/>
+      <c r="B37" s="155"/>
+      <c r="C37" s="155"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="156"/>
       <c r="H37" s="113"/>
       <c r="I37" s="113"/>
       <c r="J37" s="113"/>
@@ -4533,14 +4416,14 @@
       <c r="N37"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="119"/>
-      <c r="B38" s="155"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="165"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="158"/>
       <c r="H38" s="113"/>
       <c r="I38" s="113"/>
       <c r="J38" s="113"/>
@@ -4549,7 +4432,7 @@
       <c r="N38"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -4564,7 +4447,7 @@
       <c r="L39"/>
       <c r="M39"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>64</v>
       </c>
@@ -4574,239 +4457,276 @@
       <c r="E40" s="2"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="135" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" s="162" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="142"/>
-      <c r="C41" s="135" t="s">
+      <c r="B41" s="168"/>
+      <c r="C41" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="136"/>
-      <c r="E41" s="137"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="164"/>
       <c r="F41" s="29" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="143"/>
-      <c r="B42" s="144"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="156"/>
-      <c r="E42" s="144"/>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="159"/>
+      <c r="B42" s="161"/>
+      <c r="C42" s="159"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="161"/>
       <c r="F42" s="49"/>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="133"/>
-      <c r="B43" s="134"/>
-      <c r="C43" s="133"/>
-      <c r="D43" s="157"/>
-      <c r="E43" s="134"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="143"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="145"/>
       <c r="F43" s="49"/>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="133"/>
-      <c r="B44" s="134"/>
-      <c r="C44" s="133"/>
-      <c r="D44" s="157"/>
-      <c r="E44" s="134"/>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="143"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="145"/>
       <c r="F44" s="49"/>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="133"/>
-      <c r="B45" s="134"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="157"/>
-      <c r="E45" s="134"/>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="143"/>
+      <c r="B45" s="145"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="145"/>
       <c r="F45" s="49"/>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="133"/>
-      <c r="B46" s="134"/>
-      <c r="C46" s="133"/>
-      <c r="D46" s="157"/>
-      <c r="E46" s="134"/>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" s="143"/>
+      <c r="B46" s="145"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="145"/>
       <c r="F46" s="49"/>
     </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="133"/>
-      <c r="B47" s="134"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="157"/>
-      <c r="E47" s="134"/>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" s="143"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="145"/>
       <c r="F47" s="49"/>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="133"/>
-      <c r="B48" s="134"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="157"/>
-      <c r="E48" s="134"/>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48" s="143"/>
+      <c r="B48" s="145"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="145"/>
       <c r="F48" s="49"/>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="133"/>
-      <c r="B49" s="134"/>
-      <c r="C49" s="133"/>
-      <c r="D49" s="157"/>
-      <c r="E49" s="134"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="143"/>
+      <c r="B49" s="145"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="145"/>
       <c r="F49" s="49"/>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="133"/>
-      <c r="B50" s="134"/>
-      <c r="C50" s="133"/>
-      <c r="D50" s="157"/>
-      <c r="E50" s="134"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="143"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="145"/>
       <c r="F50" s="49"/>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="133"/>
-      <c r="B51" s="134"/>
-      <c r="C51" s="133"/>
-      <c r="D51" s="157"/>
-      <c r="E51" s="134"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="143"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="145"/>
       <c r="F51" s="49"/>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="133"/>
-      <c r="B52" s="134"/>
-      <c r="C52" s="133"/>
-      <c r="D52" s="157"/>
-      <c r="E52" s="134"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="143"/>
+      <c r="B52" s="145"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="145"/>
       <c r="F52" s="49"/>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="133"/>
-      <c r="B53" s="134"/>
-      <c r="C53" s="133"/>
-      <c r="D53" s="157"/>
-      <c r="E53" s="134"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="143"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="145"/>
       <c r="F53" s="49"/>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="133"/>
-      <c r="B54" s="134"/>
-      <c r="C54" s="133"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="134"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="143"/>
+      <c r="B54" s="145"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="145"/>
       <c r="F54" s="49"/>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="133"/>
-      <c r="B55" s="134"/>
-      <c r="C55" s="133"/>
-      <c r="D55" s="157"/>
-      <c r="E55" s="134"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="143"/>
+      <c r="B55" s="145"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="145"/>
       <c r="F55" s="49"/>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="133"/>
-      <c r="B56" s="134"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="157"/>
-      <c r="E56" s="134"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="143"/>
+      <c r="B56" s="145"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="145"/>
       <c r="F56" s="49"/>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="133"/>
-      <c r="B57" s="134"/>
-      <c r="C57" s="133"/>
-      <c r="D57" s="157"/>
-      <c r="E57" s="134"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="143"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="145"/>
       <c r="F57" s="49"/>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="133"/>
-      <c r="B58" s="134"/>
-      <c r="C58" s="133"/>
-      <c r="D58" s="157"/>
-      <c r="E58" s="134"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="143"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="145"/>
       <c r="F58" s="49"/>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="133"/>
-      <c r="B59" s="134"/>
-      <c r="C59" s="133"/>
-      <c r="D59" s="157"/>
-      <c r="E59" s="134"/>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="143"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="145"/>
       <c r="F59" s="49"/>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="133"/>
-      <c r="B60" s="134"/>
-      <c r="C60" s="133"/>
-      <c r="D60" s="157"/>
-      <c r="E60" s="134"/>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="143"/>
+      <c r="B60" s="145"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="145"/>
       <c r="F60" s="49"/>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="133"/>
-      <c r="B61" s="134"/>
-      <c r="C61" s="133"/>
-      <c r="D61" s="157"/>
-      <c r="E61" s="134"/>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="143"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="145"/>
       <c r="F61" s="49"/>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="133"/>
-      <c r="B62" s="134"/>
-      <c r="C62" s="133"/>
-      <c r="D62" s="157"/>
-      <c r="E62" s="134"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="143"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="145"/>
       <c r="F62" s="49"/>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="133"/>
-      <c r="B63" s="134"/>
-      <c r="C63" s="133"/>
-      <c r="D63" s="157"/>
-      <c r="E63" s="134"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="143"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="144"/>
+      <c r="E63" s="145"/>
       <c r="F63" s="49"/>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="133"/>
-      <c r="B64" s="134"/>
-      <c r="C64" s="133"/>
-      <c r="D64" s="157"/>
-      <c r="E64" s="134"/>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="143"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="144"/>
+      <c r="E64" s="145"/>
       <c r="F64" s="49"/>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="133"/>
-      <c r="B65" s="134"/>
-      <c r="C65" s="133"/>
-      <c r="D65" s="157"/>
-      <c r="E65" s="134"/>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="143"/>
+      <c r="B65" s="145"/>
+      <c r="C65" s="143"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="145"/>
       <c r="F65" s="49"/>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="151"/>
-      <c r="B66" s="152"/>
-      <c r="C66" s="151"/>
-      <c r="D66" s="158"/>
-      <c r="E66" s="152"/>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="146"/>
+      <c r="B66" s="148"/>
+      <c r="C66" s="146"/>
+      <c r="D66" s="147"/>
+      <c r="E66" s="148"/>
       <c r="F66" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
     <mergeCell ref="C65:E65"/>
     <mergeCell ref="C66:E66"/>
     <mergeCell ref="B29:G29"/>
@@ -4823,64 +4743,27 @@
     <mergeCell ref="C63:E63"/>
     <mergeCell ref="C64:E64"/>
     <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15" xr:uid="{AA005DBF-E840-AD43-AC91-CD6CE016CB50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
       <formula1>isImport</formula1>
     </dataValidation>
   </dataValidations>
@@ -4892,7 +4775,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
@@ -4905,47 +4788,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I41" sqref="I41:I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="20.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="20.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.875" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.625" style="1" customWidth="1"/>
     <col min="18" max="18" width="43.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.1640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.1640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.83203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9.83203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.83203125" style="1"/>
-    <col min="27" max="27" width="9.1640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.83203125" style="1"/>
+    <col min="19" max="19" width="11.375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.875" style="1"/>
+    <col min="27" max="27" width="9.125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
@@ -4953,17 +4836,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4976,7 +4859,7 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -4992,13 +4875,13 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" s="128"/>
       <c r="E7" s="54"/>
@@ -5011,7 +4894,7 @@
       <c r="L7" s="54"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -5026,7 +4909,7 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>155</v>
       </c>
@@ -5041,7 +4924,7 @@
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="56" t="s">
         <v>156</v>
       </c>
@@ -5053,7 +4936,7 @@
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="56" t="s">
         <v>157</v>
       </c>
@@ -5065,7 +4948,7 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="56" t="s">
         <v>158</v>
       </c>
@@ -5077,7 +4960,7 @@
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -5088,58 +4971,58 @@
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="54"/>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="123" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="123"/>
+      <c r="C15" s="135" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="178" t="s">
+      <c r="D15" s="135"/>
+      <c r="E15" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="178"/>
-      <c r="E15" s="96" t="s">
+      <c r="G15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="123" t="s">
         <v>183</v>
       </c>
-      <c r="G15" s="54"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="123" t="s">
+      <c r="B16" s="123"/>
+      <c r="C16" s="135" t="s">
         <v>184</v>
       </c>
-      <c r="B16" s="123"/>
-      <c r="C16" s="178" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="178"/>
+      <c r="D16" s="135"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
       <c r="H16" s="96"/>
       <c r="I16" s="96"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="124" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="125"/>
       <c r="C17" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -5150,33 +5033,33 @@
       <c r="L17"/>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="C18" s="28"/>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="166" t="s">
-        <v>199</v>
-      </c>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="166"/>
-    </row>
-    <row r="20" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="175" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="175"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="175"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="145" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="147"/>
+      <c r="B20" s="169" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="171"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -5186,7 +5069,7 @@
       <c r="O20" s="112"/>
       <c r="P20" s="112"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="117"/>
       <c r="B21" s="153"/>
       <c r="C21" s="153"/>
@@ -5203,14 +5086,14 @@
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="118"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -5220,14 +5103,14 @@
       <c r="O22"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="119"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -5237,32 +5120,32 @@
       <c r="O23"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="148" t="s">
-        <v>200</v>
-      </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="150"/>
-    </row>
-    <row r="26" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="172" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="173"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="174"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="159" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
+      <c r="B26" s="149" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -5272,18 +5155,18 @@
       <c r="O26" s="112"/>
       <c r="P26" s="112"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="160" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="160"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
+      <c r="B27" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -5293,14 +5176,14 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="118"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="161"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -5310,14 +5193,14 @@
       <c r="O28"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="119"/>
-      <c r="B29" s="162"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -5327,7 +5210,7 @@
       <c r="O29"/>
       <c r="P29"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -5343,29 +5226,29 @@
       <c r="M30"/>
       <c r="N30"/>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="148" t="s">
-        <v>201</v>
-      </c>
-      <c r="B31" s="149"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="150"/>
-    </row>
-    <row r="32" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="172" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="173"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="174"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="159" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
+      <c r="B32" s="149" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -5375,14 +5258,14 @@
       <c r="O32" s="112"/>
       <c r="P32" s="112"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="117"/>
       <c r="B33" s="153"/>
       <c r="C33" s="153"/>
       <c r="D33" s="153"/>
       <c r="E33" s="153"/>
       <c r="F33" s="153"/>
-      <c r="G33" s="163"/>
+      <c r="G33" s="154"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -5392,14 +5275,14 @@
       <c r="O33"/>
       <c r="P33"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="118"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="164"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="156"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -5409,14 +5292,14 @@
       <c r="O34"/>
       <c r="P34"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="119"/>
-      <c r="B35" s="155"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="165"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="158"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -5426,7 +5309,7 @@
       <c r="O35"/>
       <c r="P35"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -5442,10 +5325,10 @@
       <c r="M36"/>
       <c r="N36"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" s="19" t="s">
         <v>10</v>
       </c>
@@ -5469,59 +5352,59 @@
       <c r="S38" s="39"/>
       <c r="T38" s="39"/>
     </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="179" t="s">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A39" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="179" t="s">
+      <c r="B39" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="181" t="s">
+      <c r="C39" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="179" t="s">
+      <c r="D39" s="181" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="184" t="s">
         <v>162</v>
       </c>
       <c r="F39" s="184" t="s">
-        <v>184</v>
-      </c>
-      <c r="G39" s="179" t="s">
+        <v>183</v>
+      </c>
+      <c r="G39" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="179" t="s">
+      <c r="H39" s="181" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="179" t="s">
-        <v>202</v>
-      </c>
-      <c r="J39" s="182" t="s">
+      <c r="I39" s="181" t="s">
+        <v>201</v>
+      </c>
+      <c r="J39" s="179" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="183"/>
-      <c r="L39" s="182" t="s">
+      <c r="K39" s="180"/>
+      <c r="L39" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="183"/>
+      <c r="M39" s="180"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="179" t="s">
+      <c r="O39" s="181" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="180"/>
-      <c r="B40" s="180"/>
-      <c r="C40" s="180"/>
-      <c r="D40" s="180"/>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A40" s="182"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
       <c r="E40" s="185"/>
-      <c r="F40" s="191"/>
-      <c r="G40" s="180"/>
-      <c r="H40" s="180"/>
-      <c r="I40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="187"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -5537,9 +5420,9 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="180"/>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="O40" s="182"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>1</v>
       </c>
@@ -5572,7 +5455,7 @@
       <c r="N41" s="30"/>
       <c r="O41" s="9"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" s="10">
         <f t="shared" ref="A42:A47" si="0">A41+1</f>
         <v>2</v>
@@ -5604,7 +5487,7 @@
       <c r="N42" s="31"/>
       <c r="O42" s="12"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5632,7 +5515,7 @@
       <c r="N43" s="31"/>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5658,7 +5541,7 @@
       <c r="N44" s="31"/>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5671,7 +5554,7 @@
         <v>111</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="87"/>
@@ -5685,10 +5568,10 @@
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5714,7 +5597,7 @@
       <c r="N46" s="31"/>
       <c r="O46" s="14"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5724,7 +5607,7 @@
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -5740,7 +5623,7 @@
       <c r="N47" s="31"/>
       <c r="O47" s="14"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="10"/>
       <c r="B48" s="22"/>
       <c r="C48" s="13"/>
@@ -5757,7 +5640,7 @@
       <c r="N48" s="31"/>
       <c r="O48" s="14"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="10"/>
       <c r="B49" s="22"/>
       <c r="C49" s="13"/>
@@ -5774,7 +5657,7 @@
       <c r="N49" s="32"/>
       <c r="O49" s="14"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="10"/>
       <c r="B50" s="22"/>
       <c r="C50" s="13"/>
@@ -5791,7 +5674,7 @@
       <c r="N50" s="31"/>
       <c r="O50" s="14"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="10"/>
       <c r="B51" s="22"/>
       <c r="C51" s="13"/>
@@ -5808,7 +5691,7 @@
       <c r="N51" s="31"/>
       <c r="O51" s="14"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="10"/>
       <c r="B52" s="22"/>
       <c r="C52" s="13"/>
@@ -5825,7 +5708,7 @@
       <c r="N52" s="31"/>
       <c r="O52" s="14"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="10"/>
       <c r="B53" s="22"/>
       <c r="C53" s="13"/>
@@ -5842,7 +5725,7 @@
       <c r="N53" s="31"/>
       <c r="O53" s="14"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="10"/>
       <c r="B54" s="22"/>
       <c r="C54" s="13"/>
@@ -5859,7 +5742,7 @@
       <c r="N54" s="31"/>
       <c r="O54" s="14"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="10"/>
       <c r="B55" s="22"/>
       <c r="C55" s="13"/>
@@ -5876,7 +5759,7 @@
       <c r="N55" s="32"/>
       <c r="O55" s="14"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="10"/>
       <c r="B56" s="22"/>
       <c r="C56" s="13"/>
@@ -5893,7 +5776,7 @@
       <c r="N56" s="31"/>
       <c r="O56" s="14"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="10"/>
       <c r="B57" s="22"/>
       <c r="C57" s="13"/>
@@ -5910,7 +5793,7 @@
       <c r="N57" s="31"/>
       <c r="O57" s="14"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
       <c r="B58" s="22"/>
       <c r="C58" s="13"/>
@@ -5927,7 +5810,7 @@
       <c r="N58" s="31"/>
       <c r="O58" s="14"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="10"/>
       <c r="B59" s="22"/>
       <c r="C59" s="13"/>
@@ -5944,7 +5827,7 @@
       <c r="N59" s="31"/>
       <c r="O59" s="14"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="10"/>
       <c r="B60" s="22"/>
       <c r="C60" s="13"/>
@@ -5961,7 +5844,7 @@
       <c r="N60" s="32"/>
       <c r="O60" s="14"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="10"/>
       <c r="B61" s="22"/>
       <c r="C61" s="13"/>
@@ -5978,7 +5861,7 @@
       <c r="N61" s="31"/>
       <c r="O61" s="14"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
       <c r="B62" s="22"/>
       <c r="C62" s="13"/>
@@ -5995,7 +5878,7 @@
       <c r="N62" s="31"/>
       <c r="O62" s="14"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
       <c r="B63" s="22"/>
       <c r="C63" s="13"/>
@@ -6012,7 +5895,7 @@
       <c r="N63" s="32"/>
       <c r="O63" s="14"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="15"/>
       <c r="B64" s="23"/>
       <c r="C64" s="16"/>
@@ -6031,23 +5914,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -6060,21 +5926,38 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>Validate実装パターン</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{C2D0C7F4-19B0-DB40-AFFD-E6928EE4E5C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I41:I64" xr:uid="{1FBC7B49-ABAE-AE4A-8A55-EF1A4EFC4446}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I41:I64">
       <formula1>isNullable</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" display="http://tempuri.org/sample" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C14" r:id="rId1" display="http://tempuri.org/sample"/>
   </hyperlinks>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape"/>
@@ -6085,19 +5968,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>config!$D$5:$D$8</xm:f>
           </x14:formula1>
           <xm:sqref>C10:C12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>config!$C$5:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
@@ -6110,7 +5993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6120,37 +6003,37 @@
       <selection activeCell="I38" sqref="I38:I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="20.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="20.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.625" style="1" customWidth="1"/>
     <col min="18" max="18" width="43.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.1640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.1640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.83203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9.83203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.83203125" style="1"/>
-    <col min="27" max="27" width="9.1640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.83203125" style="1"/>
+    <col min="19" max="19" width="11.375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.875" style="1"/>
+    <col min="27" max="27" width="9.125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
@@ -6158,17 +6041,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -6180,7 +6063,7 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -6195,13 +6078,13 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="54"/>
@@ -6213,7 +6096,7 @@
       <c r="L7" s="54"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -6227,7 +6110,7 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>155</v>
       </c>
@@ -6242,7 +6125,7 @@
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -6253,60 +6136,60 @@
       <c r="F10" s="54"/>
       <c r="I10" s="28"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="54"/>
       <c r="F11" s="54"/>
       <c r="I11" s="28"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="123" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="135" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="178" t="s">
+      <c r="D12" s="135"/>
+      <c r="E12" s="96" t="s">
         <v>182</v>
-      </c>
-      <c r="D12" s="178"/>
-      <c r="E12" s="96" t="s">
-        <v>183</v>
       </c>
       <c r="F12" s="96"/>
       <c r="H12" s="54"/>
       <c r="I12" s="28"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="123" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="123"/>
+      <c r="C13" s="135" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="178" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="178"/>
+      <c r="D13" s="135"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
       <c r="J13" s="96"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="124" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14" s="125"/>
       <c r="C14" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -6316,34 +6199,34 @@
       <c r="M14"/>
       <c r="N14"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="E15" s="96"/>
       <c r="F15" s="96"/>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="166" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-    </row>
-    <row r="17" spans="1:16">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="175" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="175"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="145" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="147"/>
+      <c r="B17" s="169" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="171"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -6352,7 +6235,7 @@
       <c r="O17" s="112"/>
       <c r="P17" s="112"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="117"/>
       <c r="B18" s="153"/>
       <c r="C18" s="153"/>
@@ -6368,14 +6251,14 @@
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="118"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -6384,14 +6267,14 @@
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="119"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -6401,34 +6284,34 @@
       <c r="O20"/>
       <c r="P20"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C21"/>
       <c r="I21" s="113"/>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="148" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22" s="149"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="150"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="172" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="173"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="174"/>
       <c r="I22" s="113"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="159" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="149" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -6438,18 +6321,18 @@
       <c r="O23" s="112"/>
       <c r="P23" s="112"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="160" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
+      <c r="B24" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="150"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -6458,14 +6341,14 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="118"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -6474,14 +6357,14 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="119"/>
-      <c r="B26" s="162"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -6491,7 +6374,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -6507,30 +6390,30 @@
       <c r="M27"/>
       <c r="N27"/>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="148" t="s">
-        <v>201</v>
-      </c>
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="150"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="172" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="173"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="174"/>
       <c r="I28" s="113"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="159" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
+      <c r="B29" s="149" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -6540,14 +6423,14 @@
       <c r="O29" s="112"/>
       <c r="P29" s="112"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="117"/>
       <c r="B30" s="153"/>
       <c r="C30" s="153"/>
       <c r="D30" s="153"/>
       <c r="E30" s="153"/>
       <c r="F30" s="153"/>
-      <c r="G30" s="163"/>
+      <c r="G30" s="154"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -6557,14 +6440,14 @@
       <c r="O30"/>
       <c r="P30"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="118"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="164"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="156"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -6573,14 +6456,14 @@
       <c r="O31"/>
       <c r="P31"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="119"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="165"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="158"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -6590,7 +6473,7 @@
       <c r="O32"/>
       <c r="P32"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -6606,11 +6489,11 @@
       <c r="M33"/>
       <c r="N33"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="I34" s="113"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="56" t="s">
         <v>117</v>
       </c>
@@ -6629,7 +6512,7 @@
       <c r="N35" s="57"/>
       <c r="O35" s="58"/>
     </row>
-    <row r="36" spans="1:15" ht="15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="184" t="s">
         <v>118</v>
       </c>
@@ -6646,7 +6529,7 @@
         <v>162</v>
       </c>
       <c r="F36" s="184" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G36" s="184" t="s">
         <v>140</v>
@@ -6654,14 +6537,14 @@
       <c r="H36" s="184" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="179" t="s">
-        <v>202</v>
-      </c>
-      <c r="J36" s="188" t="s">
+      <c r="I36" s="181" t="s">
+        <v>201</v>
+      </c>
+      <c r="J36" s="191" t="s">
         <v>122</v>
       </c>
       <c r="K36" s="189"/>
-      <c r="L36" s="190" t="s">
+      <c r="L36" s="188" t="s">
         <v>123</v>
       </c>
       <c r="M36" s="189"/>
@@ -6672,18 +6555,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="187"/>
-      <c r="B37" s="187"/>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="190"/>
+      <c r="B37" s="190"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="187"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="191"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="186"/>
+      <c r="D37" s="190"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="190"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="187"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -6699,9 +6582,9 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="187"/>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="O37" s="190"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="64">
         <v>1</v>
       </c>
@@ -6730,7 +6613,7 @@
       <c r="N38" s="67"/>
       <c r="O38" s="68"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="64">
         <v>2</v>
       </c>
@@ -6757,7 +6640,7 @@
       <c r="N39" s="65"/>
       <c r="O39" s="68"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="64">
         <v>3</v>
       </c>
@@ -6782,7 +6665,7 @@
       <c r="N40" s="65"/>
       <c r="O40" s="71"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="64">
         <v>4</v>
       </c>
@@ -6807,7 +6690,7 @@
       <c r="N41" s="65"/>
       <c r="O41" s="75"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="64">
         <v>5</v>
       </c>
@@ -6819,7 +6702,7 @@
         <v>110</v>
       </c>
       <c r="E42" s="74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F42" s="74"/>
       <c r="G42" s="92"/>
@@ -6834,7 +6717,7 @@
       <c r="N42" s="67"/>
       <c r="O42" s="75"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="64">
         <v>6</v>
       </c>
@@ -6859,7 +6742,7 @@
       <c r="N43" s="65"/>
       <c r="O43" s="75"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="64">
         <v>7</v>
       </c>
@@ -6868,7 +6751,7 @@
       </c>
       <c r="C44" s="73"/>
       <c r="D44" s="74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
@@ -6884,7 +6767,7 @@
       <c r="N44" s="65"/>
       <c r="O44" s="75"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="64"/>
       <c r="B45" s="72"/>
       <c r="C45" s="73"/>
@@ -6901,7 +6784,7 @@
       <c r="N45" s="65"/>
       <c r="O45" s="75"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="64"/>
       <c r="B46" s="72"/>
       <c r="C46" s="73"/>
@@ -6918,7 +6801,7 @@
       <c r="N46" s="67"/>
       <c r="O46" s="75"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="64"/>
       <c r="B47" s="72"/>
       <c r="C47" s="73"/>
@@ -6935,7 +6818,7 @@
       <c r="N47" s="65"/>
       <c r="O47" s="75"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="64"/>
       <c r="B48" s="72"/>
       <c r="C48" s="73"/>
@@ -6952,7 +6835,7 @@
       <c r="N48" s="65"/>
       <c r="O48" s="75"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="64"/>
       <c r="B49" s="72"/>
       <c r="C49" s="73"/>
@@ -6969,7 +6852,7 @@
       <c r="N49" s="65"/>
       <c r="O49" s="75"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="64"/>
       <c r="B50" s="72"/>
       <c r="C50" s="73"/>
@@ -6986,7 +6869,7 @@
       <c r="N50" s="65"/>
       <c r="O50" s="75"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="64"/>
       <c r="B51" s="72"/>
       <c r="C51" s="73"/>
@@ -7003,7 +6886,7 @@
       <c r="N51" s="65"/>
       <c r="O51" s="75"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="64"/>
       <c r="B52" s="72"/>
       <c r="C52" s="73"/>
@@ -7020,7 +6903,7 @@
       <c r="N52" s="67"/>
       <c r="O52" s="75"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="64"/>
       <c r="B53" s="72"/>
       <c r="C53" s="73"/>
@@ -7037,7 +6920,7 @@
       <c r="N53" s="65"/>
       <c r="O53" s="75"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="64"/>
       <c r="B54" s="72"/>
       <c r="C54" s="73"/>
@@ -7054,7 +6937,7 @@
       <c r="N54" s="65"/>
       <c r="O54" s="75"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="64"/>
       <c r="B55" s="72"/>
       <c r="C55" s="73"/>
@@ -7071,7 +6954,7 @@
       <c r="N55" s="65"/>
       <c r="O55" s="75"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="64"/>
       <c r="B56" s="72"/>
       <c r="C56" s="73"/>
@@ -7088,7 +6971,7 @@
       <c r="N56" s="65"/>
       <c r="O56" s="75"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="64"/>
       <c r="B57" s="72"/>
       <c r="C57" s="73"/>
@@ -7105,7 +6988,7 @@
       <c r="N57" s="67"/>
       <c r="O57" s="75"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="64"/>
       <c r="B58" s="72"/>
       <c r="C58" s="73"/>
@@ -7122,7 +7005,7 @@
       <c r="N58" s="65"/>
       <c r="O58" s="75"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="64"/>
       <c r="B59" s="72"/>
       <c r="C59" s="73"/>
@@ -7139,7 +7022,7 @@
       <c r="N59" s="65"/>
       <c r="O59" s="75"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="64"/>
       <c r="B60" s="72"/>
       <c r="C60" s="73"/>
@@ -7156,7 +7039,7 @@
       <c r="N60" s="67"/>
       <c r="O60" s="75"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="76"/>
       <c r="B61" s="77"/>
       <c r="C61" s="78"/>
@@ -7175,23 +7058,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -7203,16 +7069,33 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="I36:I37"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>Validate実装パターン</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{D2F1DDFB-4C14-CF4E-91F9-FC070B8AB604}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I38:I61" xr:uid="{F4F6C18F-0D3A-4244-9E9D-92EEB33B399D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I38:I61">
       <formula1>isNullable</formula1>
     </dataValidation>
   </dataValidations>
@@ -7225,13 +7108,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>config!$C$5:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
@@ -7244,7 +7127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7254,37 +7137,37 @@
       <selection activeCell="I41" sqref="I41:I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="20.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="20.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.875" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.625" style="1" customWidth="1"/>
     <col min="18" max="18" width="43.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.1640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.1640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.83203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9.83203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.83203125" style="1"/>
-    <col min="27" max="27" width="9.1640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.83203125" style="1"/>
+    <col min="19" max="19" width="11.375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.875" style="1"/>
+    <col min="27" max="27" width="9.125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
@@ -7292,17 +7175,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -7315,7 +7198,7 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -7331,13 +7214,13 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="54"/>
@@ -7350,7 +7233,7 @@
       <c r="L7" s="54"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -7365,7 +7248,7 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>155</v>
       </c>
@@ -7380,7 +7263,7 @@
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="56" t="s">
         <v>156</v>
       </c>
@@ -7392,7 +7275,7 @@
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="56" t="s">
         <v>157</v>
       </c>
@@ -7404,7 +7287,7 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="56" t="s">
         <v>158</v>
       </c>
@@ -7416,7 +7299,7 @@
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -7427,58 +7310,58 @@
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="54"/>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="123" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="123"/>
+      <c r="C15" s="135" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="178" t="s">
+      <c r="D15" s="135"/>
+      <c r="E15" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="178"/>
-      <c r="E15" s="96" t="s">
+      <c r="G15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="123" t="s">
         <v>183</v>
       </c>
-      <c r="G15" s="54"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="123" t="s">
+      <c r="B16" s="123"/>
+      <c r="C16" s="135" t="s">
         <v>184</v>
       </c>
-      <c r="B16" s="123"/>
-      <c r="C16" s="178" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="178"/>
+      <c r="D16" s="135"/>
       <c r="E16" s="55"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
       <c r="H16" s="96"/>
       <c r="I16" s="96"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="124" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="125"/>
       <c r="C17" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -7489,33 +7372,33 @@
       <c r="L17"/>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="C18" s="28"/>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="166" t="s">
-        <v>199</v>
-      </c>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="166"/>
-    </row>
-    <row r="20" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="175" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="175"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="175"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="145" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="147"/>
+      <c r="B20" s="169" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="171"/>
       <c r="H20" s="106"/>
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
@@ -7525,7 +7408,7 @@
       <c r="O20" s="112"/>
       <c r="P20" s="112"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="117"/>
       <c r="B21" s="153"/>
       <c r="C21" s="153"/>
@@ -7542,14 +7425,14 @@
       <c r="O21"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="118"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
       <c r="J22" s="113"/>
@@ -7559,14 +7442,14 @@
       <c r="O22"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="119"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
       <c r="J23" s="113"/>
@@ -7576,32 +7459,32 @@
       <c r="O23"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="148" t="s">
-        <v>200</v>
-      </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="150"/>
-    </row>
-    <row r="26" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="172" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="173"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="174"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="159" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
+      <c r="B26" s="149" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
@@ -7611,18 +7494,18 @@
       <c r="O26" s="112"/>
       <c r="P26" s="112"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="117">
         <v>1</v>
       </c>
-      <c r="B27" s="160" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="160"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
+      <c r="B27" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
@@ -7632,14 +7515,14 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="118"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="161"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
@@ -7649,14 +7532,14 @@
       <c r="O28"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="119"/>
-      <c r="B29" s="162"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
       <c r="J29" s="113"/>
@@ -7666,7 +7549,7 @@
       <c r="O29"/>
       <c r="P29"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -7682,29 +7565,29 @@
       <c r="M30"/>
       <c r="N30"/>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="148" t="s">
-        <v>201</v>
-      </c>
-      <c r="B31" s="149"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="150"/>
-    </row>
-    <row r="32" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="172" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="173"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="174"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="159" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
+      <c r="B32" s="149" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
       <c r="H32" s="106"/>
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
@@ -7714,14 +7597,14 @@
       <c r="O32" s="112"/>
       <c r="P32" s="112"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="117"/>
       <c r="B33" s="153"/>
       <c r="C33" s="153"/>
       <c r="D33" s="153"/>
       <c r="E33" s="153"/>
       <c r="F33" s="153"/>
-      <c r="G33" s="163"/>
+      <c r="G33" s="154"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
       <c r="J33" s="113"/>
@@ -7731,14 +7614,14 @@
       <c r="O33"/>
       <c r="P33"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="118"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="164"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="156"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
@@ -7748,14 +7631,14 @@
       <c r="O34"/>
       <c r="P34"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="119"/>
-      <c r="B35" s="155"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="165"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="158"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
       <c r="J35" s="113"/>
@@ -7765,7 +7648,7 @@
       <c r="O35"/>
       <c r="P35"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -7781,10 +7664,10 @@
       <c r="M36"/>
       <c r="N36"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" s="19" t="s">
         <v>10</v>
       </c>
@@ -7808,59 +7691,59 @@
       <c r="S38" s="39"/>
       <c r="T38" s="39"/>
     </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="179" t="s">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A39" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="179" t="s">
+      <c r="B39" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="181" t="s">
+      <c r="C39" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="179" t="s">
+      <c r="D39" s="181" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="184" t="s">
         <v>162</v>
       </c>
       <c r="F39" s="184" t="s">
-        <v>184</v>
-      </c>
-      <c r="G39" s="179" t="s">
+        <v>183</v>
+      </c>
+      <c r="G39" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="179" t="s">
+      <c r="H39" s="181" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="179" t="s">
-        <v>202</v>
-      </c>
-      <c r="J39" s="182" t="s">
+      <c r="I39" s="181" t="s">
+        <v>201</v>
+      </c>
+      <c r="J39" s="179" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="183"/>
-      <c r="L39" s="182" t="s">
+      <c r="K39" s="180"/>
+      <c r="L39" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="183"/>
+      <c r="M39" s="180"/>
       <c r="N39" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="179" t="s">
+      <c r="O39" s="181" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="180"/>
-      <c r="B40" s="180"/>
-      <c r="C40" s="180"/>
-      <c r="D40" s="180"/>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A40" s="182"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
       <c r="E40" s="185"/>
-      <c r="F40" s="191"/>
-      <c r="G40" s="180"/>
-      <c r="H40" s="180"/>
-      <c r="I40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="187"/>
       <c r="J40" s="29" t="s">
         <v>75</v>
       </c>
@@ -7876,9 +7759,9 @@
       <c r="N40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O40" s="180"/>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="O40" s="182"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>1</v>
       </c>
@@ -7911,7 +7794,7 @@
       <c r="N41" s="30"/>
       <c r="O41" s="9"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" s="10">
         <f t="shared" ref="A42:A47" si="0">A41+1</f>
         <v>2</v>
@@ -7943,7 +7826,7 @@
       <c r="N42" s="31"/>
       <c r="O42" s="12"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7971,7 +7854,7 @@
       <c r="N43" s="31"/>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7997,7 +7880,7 @@
       <c r="N44" s="31"/>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8010,7 +7893,7 @@
         <v>111</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="87"/>
@@ -8024,10 +7907,10 @@
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8053,7 +7936,7 @@
       <c r="N46" s="31"/>
       <c r="O46" s="14"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8063,7 +7946,7 @@
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -8079,7 +7962,7 @@
       <c r="N47" s="31"/>
       <c r="O47" s="14"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="10"/>
       <c r="B48" s="22"/>
       <c r="C48" s="13"/>
@@ -8096,7 +7979,7 @@
       <c r="N48" s="31"/>
       <c r="O48" s="14"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="10"/>
       <c r="B49" s="22"/>
       <c r="C49" s="13"/>
@@ -8113,7 +7996,7 @@
       <c r="N49" s="32"/>
       <c r="O49" s="14"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="10"/>
       <c r="B50" s="22"/>
       <c r="C50" s="13"/>
@@ -8130,7 +8013,7 @@
       <c r="N50" s="31"/>
       <c r="O50" s="14"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="10"/>
       <c r="B51" s="22"/>
       <c r="C51" s="13"/>
@@ -8147,7 +8030,7 @@
       <c r="N51" s="31"/>
       <c r="O51" s="14"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="10"/>
       <c r="B52" s="22"/>
       <c r="C52" s="13"/>
@@ -8164,7 +8047,7 @@
       <c r="N52" s="31"/>
       <c r="O52" s="14"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="10"/>
       <c r="B53" s="22"/>
       <c r="C53" s="13"/>
@@ -8181,7 +8064,7 @@
       <c r="N53" s="31"/>
       <c r="O53" s="14"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="10"/>
       <c r="B54" s="22"/>
       <c r="C54" s="13"/>
@@ -8198,7 +8081,7 @@
       <c r="N54" s="31"/>
       <c r="O54" s="14"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="10"/>
       <c r="B55" s="22"/>
       <c r="C55" s="13"/>
@@ -8215,7 +8098,7 @@
       <c r="N55" s="32"/>
       <c r="O55" s="14"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="10"/>
       <c r="B56" s="22"/>
       <c r="C56" s="13"/>
@@ -8232,7 +8115,7 @@
       <c r="N56" s="31"/>
       <c r="O56" s="14"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="10"/>
       <c r="B57" s="22"/>
       <c r="C57" s="13"/>
@@ -8249,7 +8132,7 @@
       <c r="N57" s="31"/>
       <c r="O57" s="14"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
       <c r="B58" s="22"/>
       <c r="C58" s="13"/>
@@ -8266,7 +8149,7 @@
       <c r="N58" s="31"/>
       <c r="O58" s="14"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="10"/>
       <c r="B59" s="22"/>
       <c r="C59" s="13"/>
@@ -8283,7 +8166,7 @@
       <c r="N59" s="31"/>
       <c r="O59" s="14"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="10"/>
       <c r="B60" s="22"/>
       <c r="C60" s="13"/>
@@ -8300,7 +8183,7 @@
       <c r="N60" s="32"/>
       <c r="O60" s="14"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="10"/>
       <c r="B61" s="22"/>
       <c r="C61" s="13"/>
@@ -8317,7 +8200,7 @@
       <c r="N61" s="31"/>
       <c r="O61" s="14"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
       <c r="B62" s="22"/>
       <c r="C62" s="13"/>
@@ -8334,7 +8217,7 @@
       <c r="N62" s="31"/>
       <c r="O62" s="14"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
       <c r="B63" s="22"/>
       <c r="C63" s="13"/>
@@ -8351,7 +8234,7 @@
       <c r="N63" s="32"/>
       <c r="O63" s="14"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="15"/>
       <c r="B64" s="23"/>
       <c r="C64" s="16"/>
@@ -8370,23 +8253,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="O39:O40"/>
@@ -8399,21 +8265,38 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>Validate実装パターン</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{8DCE618D-7292-824C-BB89-A7819F622C03}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I41:I64" xr:uid="{00E63083-CDBF-F045-B8D5-63F639C95F60}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I41:I64">
       <formula1>isNullable</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" display="http://tempuri.org/sample" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C14" r:id="rId1" display="http://tempuri.org/sample"/>
   </hyperlinks>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape"/>
@@ -8424,19 +8307,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>config!$D$5:$D$8</xm:f>
           </x14:formula1>
           <xm:sqref>C10:C12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>config!$C$5:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
@@ -8449,7 +8332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8459,37 +8342,37 @@
       <selection activeCell="I38" sqref="I38:I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="20.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="20.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.625" style="1" customWidth="1"/>
     <col min="18" max="18" width="43.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.1640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.1640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.83203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9.83203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.83203125" style="1"/>
-    <col min="27" max="27" width="9.1640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.83203125" style="1"/>
+    <col min="19" max="19" width="11.375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.875" style="1"/>
+    <col min="27" max="27" width="9.125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
@@ -8497,17 +8380,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -8519,7 +8402,7 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -8534,13 +8417,13 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="54"/>
@@ -8552,7 +8435,7 @@
       <c r="L7" s="54"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -8566,7 +8449,7 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>155</v>
       </c>
@@ -8581,7 +8464,7 @@
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -8592,60 +8475,60 @@
       <c r="F10" s="54"/>
       <c r="I10" s="28"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="54"/>
       <c r="F11" s="54"/>
       <c r="I11" s="28"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="123" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="135" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="178" t="s">
+      <c r="D12" s="135"/>
+      <c r="E12" s="96" t="s">
         <v>182</v>
-      </c>
-      <c r="D12" s="178"/>
-      <c r="E12" s="96" t="s">
-        <v>183</v>
       </c>
       <c r="F12" s="96"/>
       <c r="H12" s="54"/>
       <c r="I12" s="28"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="123" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="123"/>
+      <c r="C13" s="135" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="178" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="178"/>
+      <c r="D13" s="135"/>
       <c r="E13" s="55"/>
       <c r="F13" s="55"/>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
       <c r="J13" s="96"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="124" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14" s="125"/>
       <c r="C14" s="101" t="s">
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -8655,34 +8538,34 @@
       <c r="M14"/>
       <c r="N14"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="E15" s="96"/>
       <c r="F15" s="96"/>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="166" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-    </row>
-    <row r="17" spans="1:16">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="175" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="175"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="145" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="147"/>
+      <c r="B17" s="169" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="171"/>
       <c r="H17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="106"/>
@@ -8691,7 +8574,7 @@
       <c r="O17" s="112"/>
       <c r="P17" s="112"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="117"/>
       <c r="B18" s="153"/>
       <c r="C18" s="153"/>
@@ -8707,14 +8590,14 @@
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="118"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
       <c r="H19" s="113"/>
       <c r="J19" s="113"/>
       <c r="K19" s="113"/>
@@ -8723,14 +8606,14 @@
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="119"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
       <c r="H20" s="113"/>
       <c r="I20" s="106"/>
       <c r="J20" s="113"/>
@@ -8740,34 +8623,34 @@
       <c r="O20"/>
       <c r="P20"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C21"/>
       <c r="I21" s="113"/>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="148" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22" s="149"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="150"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="172" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="173"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="174"/>
       <c r="I22" s="113"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="159" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="149" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
       <c r="H23" s="106"/>
       <c r="I23" s="113"/>
       <c r="J23" s="106"/>
@@ -8777,18 +8660,18 @@
       <c r="O23" s="112"/>
       <c r="P23" s="112"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="117">
         <v>1</v>
       </c>
-      <c r="B24" s="160" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
+      <c r="B24" s="150" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="150"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
       <c r="H24" s="113"/>
       <c r="J24" s="113"/>
       <c r="K24" s="113"/>
@@ -8797,14 +8680,14 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="118"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
       <c r="H25" s="113"/>
       <c r="J25" s="113"/>
       <c r="K25" s="113"/>
@@ -8813,14 +8696,14 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="119"/>
-      <c r="B26" s="162"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
       <c r="H26" s="113"/>
       <c r="I26" s="106"/>
       <c r="J26" s="113"/>
@@ -8830,7 +8713,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -8846,30 +8729,30 @@
       <c r="M27"/>
       <c r="N27"/>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="148" t="s">
-        <v>201</v>
-      </c>
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="150"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="172" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="173"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="174"/>
       <c r="I28" s="113"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="159" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
+      <c r="B29" s="149" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
       <c r="H29" s="106"/>
       <c r="I29" s="113"/>
       <c r="J29" s="106"/>
@@ -8879,14 +8762,14 @@
       <c r="O29" s="112"/>
       <c r="P29" s="112"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="117"/>
       <c r="B30" s="153"/>
       <c r="C30" s="153"/>
       <c r="D30" s="153"/>
       <c r="E30" s="153"/>
       <c r="F30" s="153"/>
-      <c r="G30" s="163"/>
+      <c r="G30" s="154"/>
       <c r="H30" s="113"/>
       <c r="I30"/>
       <c r="J30" s="113"/>
@@ -8896,14 +8779,14 @@
       <c r="O30"/>
       <c r="P30"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="118"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="164"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="156"/>
       <c r="H31" s="113"/>
       <c r="J31" s="113"/>
       <c r="K31" s="113"/>
@@ -8912,14 +8795,14 @@
       <c r="O31"/>
       <c r="P31"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="119"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="165"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="158"/>
       <c r="H32" s="113"/>
       <c r="I32" s="106"/>
       <c r="J32" s="113"/>
@@ -8929,7 +8812,7 @@
       <c r="O32"/>
       <c r="P32"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -8945,11 +8828,11 @@
       <c r="M33"/>
       <c r="N33"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="I34" s="113"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="56" t="s">
         <v>117</v>
       </c>
@@ -8968,7 +8851,7 @@
       <c r="N35" s="57"/>
       <c r="O35" s="58"/>
     </row>
-    <row r="36" spans="1:15" ht="15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="184" t="s">
         <v>118</v>
       </c>
@@ -8985,7 +8868,7 @@
         <v>162</v>
       </c>
       <c r="F36" s="184" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G36" s="184" t="s">
         <v>140</v>
@@ -8993,14 +8876,14 @@
       <c r="H36" s="184" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="179" t="s">
-        <v>202</v>
-      </c>
-      <c r="J36" s="188" t="s">
+      <c r="I36" s="181" t="s">
+        <v>201</v>
+      </c>
+      <c r="J36" s="191" t="s">
         <v>122</v>
       </c>
       <c r="K36" s="189"/>
-      <c r="L36" s="190" t="s">
+      <c r="L36" s="188" t="s">
         <v>123</v>
       </c>
       <c r="M36" s="189"/>
@@ -9011,18 +8894,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="187"/>
-      <c r="B37" s="187"/>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="190"/>
+      <c r="B37" s="190"/>
       <c r="C37" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="187"/>
+      <c r="D37" s="190"/>
       <c r="E37" s="185"/>
-      <c r="F37" s="191"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="186"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="190"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="187"/>
       <c r="J37" s="62" t="s">
         <v>126</v>
       </c>
@@ -9038,9 +8921,9 @@
       <c r="N37" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="O37" s="187"/>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="O37" s="190"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="64">
         <v>1</v>
       </c>
@@ -9069,7 +8952,7 @@
       <c r="N38" s="67"/>
       <c r="O38" s="68"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="64">
         <v>2</v>
       </c>
@@ -9096,7 +8979,7 @@
       <c r="N39" s="65"/>
       <c r="O39" s="68"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="64">
         <v>3</v>
       </c>
@@ -9121,7 +9004,7 @@
       <c r="N40" s="65"/>
       <c r="O40" s="71"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="64">
         <v>4</v>
       </c>
@@ -9146,7 +9029,7 @@
       <c r="N41" s="65"/>
       <c r="O41" s="75"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="64">
         <v>5</v>
       </c>
@@ -9158,7 +9041,7 @@
         <v>110</v>
       </c>
       <c r="E42" s="74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F42" s="74"/>
       <c r="G42" s="92"/>
@@ -9173,7 +9056,7 @@
       <c r="N42" s="67"/>
       <c r="O42" s="75"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="64">
         <v>6</v>
       </c>
@@ -9198,7 +9081,7 @@
       <c r="N43" s="65"/>
       <c r="O43" s="75"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="64">
         <v>7</v>
       </c>
@@ -9207,7 +9090,7 @@
       </c>
       <c r="C44" s="73"/>
       <c r="D44" s="74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E44" s="74"/>
       <c r="F44" s="74"/>
@@ -9223,7 +9106,7 @@
       <c r="N44" s="65"/>
       <c r="O44" s="75"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="64"/>
       <c r="B45" s="72"/>
       <c r="C45" s="73"/>
@@ -9240,7 +9123,7 @@
       <c r="N45" s="65"/>
       <c r="O45" s="75"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="64"/>
       <c r="B46" s="72"/>
       <c r="C46" s="73"/>
@@ -9257,7 +9140,7 @@
       <c r="N46" s="67"/>
       <c r="O46" s="75"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="64"/>
       <c r="B47" s="72"/>
       <c r="C47" s="73"/>
@@ -9274,7 +9157,7 @@
       <c r="N47" s="65"/>
       <c r="O47" s="75"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="64"/>
       <c r="B48" s="72"/>
       <c r="C48" s="73"/>
@@ -9291,7 +9174,7 @@
       <c r="N48" s="65"/>
       <c r="O48" s="75"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="64"/>
       <c r="B49" s="72"/>
       <c r="C49" s="73"/>
@@ -9308,7 +9191,7 @@
       <c r="N49" s="65"/>
       <c r="O49" s="75"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="64"/>
       <c r="B50" s="72"/>
       <c r="C50" s="73"/>
@@ -9325,7 +9208,7 @@
       <c r="N50" s="65"/>
       <c r="O50" s="75"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="64"/>
       <c r="B51" s="72"/>
       <c r="C51" s="73"/>
@@ -9342,7 +9225,7 @@
       <c r="N51" s="65"/>
       <c r="O51" s="75"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="64"/>
       <c r="B52" s="72"/>
       <c r="C52" s="73"/>
@@ -9359,7 +9242,7 @@
       <c r="N52" s="67"/>
       <c r="O52" s="75"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="64"/>
       <c r="B53" s="72"/>
       <c r="C53" s="73"/>
@@ -9376,7 +9259,7 @@
       <c r="N53" s="65"/>
       <c r="O53" s="75"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="64"/>
       <c r="B54" s="72"/>
       <c r="C54" s="73"/>
@@ -9393,7 +9276,7 @@
       <c r="N54" s="65"/>
       <c r="O54" s="75"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="64"/>
       <c r="B55" s="72"/>
       <c r="C55" s="73"/>
@@ -9410,7 +9293,7 @@
       <c r="N55" s="65"/>
       <c r="O55" s="75"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="64"/>
       <c r="B56" s="72"/>
       <c r="C56" s="73"/>
@@ -9427,7 +9310,7 @@
       <c r="N56" s="65"/>
       <c r="O56" s="75"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="64"/>
       <c r="B57" s="72"/>
       <c r="C57" s="73"/>
@@ -9444,7 +9327,7 @@
       <c r="N57" s="67"/>
       <c r="O57" s="75"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="64"/>
       <c r="B58" s="72"/>
       <c r="C58" s="73"/>
@@ -9461,7 +9344,7 @@
       <c r="N58" s="65"/>
       <c r="O58" s="75"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="64"/>
       <c r="B59" s="72"/>
       <c r="C59" s="73"/>
@@ -9478,7 +9361,7 @@
       <c r="N59" s="65"/>
       <c r="O59" s="75"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="64"/>
       <c r="B60" s="72"/>
       <c r="C60" s="73"/>
@@ -9495,7 +9378,7 @@
       <c r="N60" s="67"/>
       <c r="O60" s="75"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="76"/>
       <c r="B61" s="77"/>
       <c r="C61" s="78"/>
@@ -9514,23 +9397,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:O37"/>
     <mergeCell ref="A36:A37"/>
@@ -9542,16 +9408,33 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="I36:I37"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>Validate実装パターン</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{636F0EC0-E3B1-F545-9C36-B207BD3682CC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I38:I61" xr:uid="{5095142C-A801-5B49-9AD7-C55126FBCCC6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I38:I61">
       <formula1>isNullable</formula1>
     </dataValidation>
   </dataValidations>
@@ -9564,13 +9447,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>config!$C$5:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
@@ -9583,7 +9466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9593,14 +9476,14 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="40" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="40" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="40"/>
+    <col min="3" max="16384" width="8.875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
@@ -9608,34 +9491,34 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -9643,7 +9526,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>32</v>
@@ -9651,260 +9534,260 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="C16" s="40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" s="40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
       <c r="C19" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
       <c r="C20" s="40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="40" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C29" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C30" s="40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C31" s="40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C33" s="40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C34" s="40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C36" s="40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" s="40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C38" s="40" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" s="40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C40" s="40" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C41" s="40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C42" s="40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C43" s="40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B44" s="40" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C45" s="40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C46" s="40" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B47" s="40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C48" s="40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C49" s="40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B50" s="40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C51" s="40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C52" s="40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B55" s="40" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C56" s="40" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C57" s="40" t="s">
         <v>89</v>
       </c>
@@ -9917,7 +9800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9927,17 +9810,17 @@
       <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>21</v>
       </c>
@@ -9947,14 +9830,14 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="43" t="s">
         <v>4</v>
       </c>
@@ -9968,13 +9851,13 @@
         <v>152</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="44" t="s">
         <v>6</v>
       </c>
@@ -9992,7 +9875,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
@@ -10006,7 +9889,7 @@
       <c r="E6" s="66"/>
       <c r="F6" s="66"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="15"/>
       <c r="C7" s="48" t="s">
         <v>150</v>
@@ -10015,7 +9898,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C8" s="48" t="s">
         <v>151</v>
       </c>
@@ -10023,7 +9906,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D10" s="3"/>
     </row>
   </sheetData>
